--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="176">
   <si>
     <t>부서</t>
   </si>
@@ -296,6 +296,264 @@
   </si>
   <si>
     <t>자재파견</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">010-2574-7632 </t>
+  </si>
+  <si>
+    <t>010-6406-9190</t>
+  </si>
+  <si>
+    <t>010-9247-5699</t>
+  </si>
+  <si>
+    <t>010-2664-9963</t>
+  </si>
+  <si>
+    <t>010-3174-9669</t>
+  </si>
+  <si>
+    <t>010-3478-4417</t>
+  </si>
+  <si>
+    <t>010-8984-6323</t>
+  </si>
+  <si>
+    <t>010-7174-4489</t>
+  </si>
+  <si>
+    <t>010-6804-4587</t>
+  </si>
+  <si>
+    <t>010-5755-9328</t>
+  </si>
+  <si>
+    <t>010-4573-2542</t>
+  </si>
+  <si>
+    <t>010-9680-1816</t>
+  </si>
+  <si>
+    <t>010-3421-8681</t>
+  </si>
+  <si>
+    <t>010-4144-7918</t>
+  </si>
+  <si>
+    <t>010-5585-9122</t>
+  </si>
+  <si>
+    <t>010-5633-9741</t>
+  </si>
+  <si>
+    <t>010-9405-2407</t>
+  </si>
+  <si>
+    <t>010-5430-1347</t>
+  </si>
+  <si>
+    <t>010-4073-6255</t>
+  </si>
+  <si>
+    <t>010-5498-5718</t>
+  </si>
+  <si>
+    <t>010-2775-4127</t>
+  </si>
+  <si>
+    <t>010-4420-4441</t>
+  </si>
+  <si>
+    <t>010-7197-9750</t>
+  </si>
+  <si>
+    <t>010-5611-0741</t>
+  </si>
+  <si>
+    <t>010-8685-5887</t>
+  </si>
+  <si>
+    <t>010-3913-3485</t>
+  </si>
+  <si>
+    <t>010-5155-7080</t>
+  </si>
+  <si>
+    <t>010-7339-9499</t>
+  </si>
+  <si>
+    <t>010-8201-3731</t>
+  </si>
+  <si>
+    <t>010-6413-4798</t>
+  </si>
+  <si>
+    <t>010-2472-5270</t>
+  </si>
+  <si>
+    <t>010-5702-8821</t>
+  </si>
+  <si>
+    <t>010-2482-0845</t>
+  </si>
+  <si>
+    <t>010-7484-8984</t>
+  </si>
+  <si>
+    <t>010-8813-0823</t>
+  </si>
+  <si>
+    <t>010-2461-6781</t>
+  </si>
+  <si>
+    <t>010-2100-5598</t>
+  </si>
+  <si>
+    <t>010-2448-5312</t>
+  </si>
+  <si>
+    <t>010-9102-2494</t>
+  </si>
+  <si>
+    <t>010-7377-9847</t>
+  </si>
+  <si>
+    <t>010-2453-0502</t>
+  </si>
+  <si>
+    <t>010-3641-0256</t>
+  </si>
+  <si>
+    <t>010-4820-0387</t>
+  </si>
+  <si>
+    <t>010-5642-0932</t>
+  </si>
+  <si>
+    <t>010-2204-3198</t>
+  </si>
+  <si>
+    <t>010-3902-8067</t>
+  </si>
+  <si>
+    <t>010-5451-1306</t>
+  </si>
+  <si>
+    <t>010-9464-3198</t>
+  </si>
+  <si>
+    <t>010-2719-6460</t>
+  </si>
+  <si>
+    <t>010-8816-6317</t>
+  </si>
+  <si>
+    <t>010-8554-2733</t>
+  </si>
+  <si>
+    <t>010-5704-6204</t>
+  </si>
+  <si>
+    <t>010-9742-9212</t>
+  </si>
+  <si>
+    <t>010-3912-3485</t>
+  </si>
+  <si>
+    <t>010-4565-9893</t>
+  </si>
+  <si>
+    <t>010-4455-8602</t>
+  </si>
+  <si>
+    <t>010-9766-4910</t>
+  </si>
+  <si>
+    <t>010-2441-5922</t>
+  </si>
+  <si>
+    <t>010-9646-6903</t>
+  </si>
+  <si>
+    <t>010-2914-8984</t>
+  </si>
+  <si>
+    <t>010-9738-4050</t>
+  </si>
+  <si>
+    <t>010-3402-0702</t>
+  </si>
+  <si>
+    <t>010-8959-1452</t>
+  </si>
+  <si>
+    <t>010-4994-0283</t>
+  </si>
+  <si>
+    <t>010-3322-1875</t>
+  </si>
+  <si>
+    <t>010-7580-7335</t>
+  </si>
+  <si>
+    <t>010-4280-8053</t>
+  </si>
+  <si>
+    <t>010-8861-5570</t>
+  </si>
+  <si>
+    <t>010-5516-4395</t>
+  </si>
+  <si>
+    <t>010-9641-1477</t>
+  </si>
+  <si>
+    <t>010-2907-8799</t>
+  </si>
+  <si>
+    <t>010-6487-2507</t>
+  </si>
+  <si>
+    <t>010-7107-0660</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-8578-8917</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2690-6923</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-3911-4822</t>
+  </si>
+  <si>
+    <t>010-3570-1687</t>
+  </si>
+  <si>
+    <t>010-7211-0435</t>
+  </si>
+  <si>
+    <t>010-6204-0656</t>
+  </si>
+  <si>
+    <t>010-9840-1568</t>
+  </si>
+  <si>
+    <t>010-5673-5360</t>
+  </si>
+  <si>
+    <t>010-4056-4470</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-7601-4070</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -704,7 +962,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -865,6 +1123,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1262,7 +1533,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1277,6 +1548,21 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="153">
@@ -1733,940 +2019,1195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection sqref="A1:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="10.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.25" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6">
         <v>20100709</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
         <v>20121208</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <v>20130102</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
         <v>20140104</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <v>20140316</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6">
         <v>20150109</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
         <v>20150603</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
         <v>20150616</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
         <v>20151109</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="6">
         <v>20180703</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="6">
         <v>20180710</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="6">
         <v>20180908</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="6">
         <v>20191203</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="6">
         <v>20201101</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="6">
         <v>20211205</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="6">
         <v>20220102</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="6">
         <v>20220603</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="6">
         <v>20220706</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="6">
         <v>20221010</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="6">
         <v>20221012</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="6">
         <v>20221203</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="6">
         <v>20230204</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="6">
         <v>20230208</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="6">
         <v>20230406</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="6">
         <v>20230404</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="6">
         <v>20230409</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="6">
         <v>20230807</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="6">
         <v>20231104</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" customHeight="1">
+      <c r="D29" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="6">
         <v>20231202</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="6">
         <v>20240108</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="6">
         <v>20240110</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="6">
         <v>20240206</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="6">
         <v>20240305</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="6">
         <v>20240508</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="6">
         <v>20240511</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="6">
         <v>20240703</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="6">
         <v>20240904</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="6">
         <v>20240912</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="6">
         <v>20241002</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="6">
         <v>20241005</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="6">
         <v>20241007</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="6">
         <v>20241102</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="6">
         <v>20241212</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="6">
         <v>20250210</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="6">
         <v>20250607</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="6">
         <v>20100609</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="6">
         <v>20121201</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="6">
         <v>20141105</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="6">
         <v>20150604</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="6">
         <v>20190801</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="6">
         <v>20220314</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="6">
         <v>20221011</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="6">
         <v>20230203</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="6">
         <v>20230205</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="6">
         <v>20230407</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="6">
         <v>20231003</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="6">
         <v>20231005</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="6">
         <v>20240106</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="6">
         <v>20240204</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="6">
         <v>20240205</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="6">
         <v>20240510</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="6">
         <v>20240905</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="6">
         <v>20241001</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="6">
         <v>20250209</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="6">
         <v>20250302</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="6">
         <v>20250303</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="6">
         <v>20250514</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="6">
         <v>20250602</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="6">
         <v>20070204</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="6">
         <v>20150608</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="6">
         <v>20151205</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="6">
         <v>20250402</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="6">
         <v>20021006</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="6">
         <v>20151203</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="6">
         <v>20241101</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="6">
         <v>20151004</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="6">
         <v>20100405</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="6">
         <v>20220201</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="6">
         <v>20230308</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="6">
         <v>20241004</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="6">
         <v>20220803</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F83" s="9"/>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="6">
         <v>20250701</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2699,5 +3240,6 @@
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="166">
   <si>
     <t>부서</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>윤미나</t>
-  </si>
-  <si>
-    <t>이승헌</t>
   </si>
   <si>
     <t>김문정</t>
@@ -124,9 +121,6 @@
     <t>장우범</t>
   </si>
   <si>
-    <t>곽진헌</t>
-  </si>
-  <si>
     <t>김종민</t>
   </si>
   <si>
@@ -163,9 +157,6 @@
     <t>박소현</t>
   </si>
   <si>
-    <t>박승인</t>
-  </si>
-  <si>
     <t>천성우</t>
   </si>
   <si>
@@ -215,9 +206,6 @@
   </si>
   <si>
     <t>유경민</t>
-  </si>
-  <si>
-    <t>박은영</t>
   </si>
   <si>
     <t>전필재</t>
@@ -284,10 +272,6 @@
     <t>김병수</t>
   </si>
   <si>
-    <t>서동령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>생산관리</t>
   </si>
   <si>
@@ -360,9 +344,6 @@
     <t>010-4073-6255</t>
   </si>
   <si>
-    <t>010-5498-5718</t>
-  </si>
-  <si>
     <t>010-2775-4127</t>
   </si>
   <si>
@@ -393,9 +374,6 @@
     <t>010-6413-4798</t>
   </si>
   <si>
-    <t>010-2472-5270</t>
-  </si>
-  <si>
     <t>010-5702-8821</t>
   </si>
   <si>
@@ -432,9 +410,6 @@
     <t>010-4820-0387</t>
   </si>
   <si>
-    <t>010-5642-0932</t>
-  </si>
-  <si>
     <t>010-2204-3198</t>
   </si>
   <si>
@@ -484,9 +459,6 @@
   </si>
   <si>
     <t>010-9738-4050</t>
-  </si>
-  <si>
-    <t>010-3402-0702</t>
   </si>
   <si>
     <t>010-8959-1452</t>
@@ -547,10 +519,6 @@
   </si>
   <si>
     <t>010-5673-5360</t>
-  </si>
-  <si>
-    <t>010-4056-4470</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>010-7601-4070</t>
@@ -2019,10 +1987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2044,161 +2012,161 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="C2" s="6">
-        <v>20100709</v>
+        <v>20070204</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="C3" s="6">
-        <v>20121208</v>
+        <v>20150608</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C4" s="6">
-        <v>20130102</v>
+        <v>20151205</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C5" s="6">
-        <v>20140104</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>95</v>
+        <v>20250402</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="C6" s="6">
-        <v>20140316</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>96</v>
+        <v>20021006</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="C7" s="6">
-        <v>20150109</v>
+        <v>20151203</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C8" s="6">
-        <v>20150603</v>
+        <v>20241101</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>110</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C9" s="6">
-        <v>20150616</v>
+        <v>20151004</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="C10" s="6">
-        <v>20151109</v>
+        <v>20100405</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="C11" s="6">
-        <v>20180703</v>
+        <v>20220201</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="C12" s="6">
-        <v>20180710</v>
+        <v>20230308</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2206,13 +2174,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C13" s="6">
-        <v>20180908</v>
+        <v>20100709</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2220,13 +2188,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C14" s="6">
-        <v>20191203</v>
+        <v>20121208</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2234,13 +2202,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C15" s="6">
-        <v>20201101</v>
+        <v>20130102</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2248,13 +2216,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C16" s="6">
-        <v>20211205</v>
+        <v>20140104</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2262,13 +2230,13 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C17" s="6">
-        <v>20220102</v>
+        <v>20140316</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2276,13 +2244,13 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C18" s="6">
-        <v>20220603</v>
+        <v>20150109</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2290,13 +2258,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C19" s="6">
-        <v>20220706</v>
+        <v>20150603</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2304,13 +2272,13 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C20" s="6">
-        <v>20221010</v>
+        <v>20150616</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2318,13 +2286,13 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C21" s="6">
-        <v>20221012</v>
+        <v>20151109</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2332,13 +2300,13 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C22" s="6">
-        <v>20221203</v>
+        <v>20180703</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2346,13 +2314,13 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C23" s="6">
-        <v>20230204</v>
+        <v>20180710</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2360,13 +2328,13 @@
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C24" s="6">
-        <v>20230208</v>
+        <v>20180908</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2374,13 +2342,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C25" s="6">
-        <v>20230406</v>
+        <v>20191203</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2388,13 +2356,13 @@
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C26" s="6">
-        <v>20230404</v>
+        <v>20201101</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2402,13 +2370,13 @@
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C27" s="6">
-        <v>20230409</v>
+        <v>20211205</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2416,13 +2384,13 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C28" s="6">
-        <v>20230807</v>
+        <v>20220102</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2430,27 +2398,27 @@
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C29" s="6">
-        <v>20231104</v>
+        <v>20220603</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="C30" s="6">
+        <v>20221010</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2458,13 +2426,13 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C31" s="6">
-        <v>20231202</v>
+        <v>20221012</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2472,13 +2440,13 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C32" s="6">
-        <v>20240108</v>
+        <v>20221203</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2486,13 +2454,13 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C33" s="6">
-        <v>20240110</v>
+        <v>20230204</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2500,13 +2468,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C34" s="6">
-        <v>20240206</v>
+        <v>20230208</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2514,13 +2482,13 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C35" s="6">
-        <v>20240305</v>
+        <v>20230406</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2528,13 +2496,13 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C36" s="6">
-        <v>20240508</v>
+        <v>20230404</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2542,13 +2510,13 @@
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C37" s="6">
-        <v>20240511</v>
+        <v>20230409</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2556,13 +2524,13 @@
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C38" s="6">
-        <v>20240703</v>
+        <v>20230807</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2570,27 +2538,27 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C39" s="6">
-        <v>20240904</v>
+        <v>20231104</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="6">
-        <v>20240912</v>
+        <v>31</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2598,13 +2566,13 @@
         <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C41" s="6">
-        <v>20241002</v>
+        <v>20231202</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2612,13 +2580,13 @@
         <v>3</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C42" s="6">
-        <v>20241005</v>
+        <v>20240110</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2626,13 +2594,13 @@
         <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C43" s="6">
-        <v>20241007</v>
+        <v>20240206</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2640,13 +2608,13 @@
         <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C44" s="6">
-        <v>20241102</v>
+        <v>20240305</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2654,13 +2622,13 @@
         <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C45" s="6">
-        <v>20241212</v>
+        <v>20240508</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2668,13 +2636,13 @@
         <v>3</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C46" s="6">
-        <v>20250210</v>
+        <v>20240511</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2682,533 +2650,465 @@
         <v>3</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C47" s="6">
-        <v>20250607</v>
+        <v>20240703</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C48" s="6">
-        <v>20100609</v>
+        <v>20240904</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C49" s="6">
-        <v>20121201</v>
+        <v>20240912</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C50" s="6">
-        <v>20141105</v>
+        <v>20241002</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C51" s="6">
-        <v>20150604</v>
+        <v>20241005</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C52" s="6">
-        <v>20190801</v>
+        <v>20241007</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C53" s="6">
-        <v>20220314</v>
+        <v>20241102</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C54" s="6">
-        <v>20221011</v>
+        <v>20250210</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C55" s="6">
-        <v>20230203</v>
+        <v>20250607</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C56" s="6">
-        <v>20230205</v>
+        <v>20100609</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C57" s="6">
-        <v>20230407</v>
+        <v>20121201</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C58" s="6">
-        <v>20231003</v>
+        <v>20141105</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C59" s="6">
-        <v>20231005</v>
+        <v>20150604</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C60" s="6">
-        <v>20240106</v>
+        <v>20190801</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C61" s="6">
-        <v>20240204</v>
+        <v>20220314</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C62" s="6">
-        <v>20240205</v>
+        <v>20221011</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C63" s="6">
-        <v>20240510</v>
+        <v>20230203</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C64" s="6">
-        <v>20240905</v>
+        <v>20230205</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C65" s="6">
-        <v>20241001</v>
+        <v>20230407</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C66" s="6">
-        <v>20250209</v>
+        <v>20231003</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C67" s="6">
-        <v>20250302</v>
+        <v>20231005</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C68" s="6">
-        <v>20250303</v>
+        <v>20240106</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C69" s="6">
-        <v>20250514</v>
+        <v>20240204</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C70" s="6">
-        <v>20250602</v>
+        <v>20240205</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C71" s="6">
-        <v>20070204</v>
+        <v>20240905</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C72" s="6">
-        <v>20150608</v>
+        <v>20241001</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C73" s="6">
-        <v>20151205</v>
+        <v>20250209</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C74" s="6">
-        <v>20250402</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>165</v>
+        <v>20250302</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C75" s="6">
-        <v>20021006</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>166</v>
+        <v>20250303</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C76" s="6">
-        <v>20151203</v>
+        <v>20250514</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C77" s="6">
-        <v>20241101</v>
+        <v>20250602</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C78" s="6">
-        <v>20151004</v>
+        <v>20241004</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C79" s="6">
-        <v>20100405</v>
+        <v>20250701</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C80" s="6">
-        <v>20220201</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C81" s="6">
-        <v>20230308</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" s="6">
-        <v>20241004</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C83" s="6">
-        <v>20220803</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F83" s="9"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C84" s="6">
-        <v>20250701</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>173</v>
-      </c>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6">
+      <c r="F82" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$83</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="170">
   <si>
     <t>부서</t>
   </si>
@@ -523,6 +526,20 @@
   <si>
     <t>010-7601-4070</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서동령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-4056-4470</t>
+  </si>
+  <si>
+    <t>이승헌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-5498-5718</t>
   </si>
 </sst>
 </file>
@@ -1989,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1999,6 +2016,7 @@
     <col min="3" max="3" width="10.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="28.25" style="8" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2412,13 +2430,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="C30" s="6">
-        <v>20221010</v>
+        <v>20220706</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2426,13 +2444,13 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="6">
-        <v>20221012</v>
+        <v>20221010</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2440,13 +2458,13 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" s="6">
-        <v>20221203</v>
+        <v>20221012</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2454,13 +2472,13 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="6">
-        <v>20230204</v>
+        <v>20221203</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2468,13 +2486,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="6">
-        <v>20230208</v>
+        <v>20230204</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2482,13 +2500,13 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="6">
-        <v>20230406</v>
+        <v>20230208</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2496,13 +2514,13 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="6">
-        <v>20230404</v>
+        <v>20230406</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2510,13 +2528,13 @@
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" s="6">
-        <v>20230409</v>
+        <v>20230404</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2524,13 +2542,13 @@
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" s="6">
-        <v>20230807</v>
+        <v>20230409</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2538,13 +2556,13 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" s="6">
-        <v>20231104</v>
+        <v>20230807</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" customHeight="1">
@@ -2552,27 +2570,27 @@
         <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="6">
+        <v>20231104</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="49.5">
+      <c r="A41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="6">
-        <v>20231202</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2580,13 +2598,13 @@
         <v>3</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" s="6">
-        <v>20240110</v>
+        <v>20231202</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2594,13 +2612,13 @@
         <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" s="6">
-        <v>20240206</v>
+        <v>20240110</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2608,13 +2626,13 @@
         <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="6">
-        <v>20240305</v>
+        <v>20240206</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2622,13 +2640,13 @@
         <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="6">
-        <v>20240508</v>
+        <v>20240305</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2636,13 +2654,13 @@
         <v>3</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="6">
-        <v>20240511</v>
+        <v>20240508</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2650,13 +2668,13 @@
         <v>3</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="6">
-        <v>20240703</v>
+        <v>20240511</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2664,13 +2682,13 @@
         <v>3</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" s="6">
-        <v>20240904</v>
+        <v>20240703</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2678,13 +2696,13 @@
         <v>3</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C49" s="6">
-        <v>20240912</v>
+        <v>20240904</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2692,13 +2710,13 @@
         <v>3</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C50" s="6">
-        <v>20241002</v>
+        <v>20240912</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2706,13 +2724,13 @@
         <v>3</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51" s="6">
-        <v>20241005</v>
+        <v>20241002</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2720,13 +2738,13 @@
         <v>3</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="6">
-        <v>20241007</v>
+        <v>20241005</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2734,13 +2752,13 @@
         <v>3</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" s="6">
-        <v>20241102</v>
+        <v>20241007</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2748,13 +2766,13 @@
         <v>3</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C54" s="6">
-        <v>20250210</v>
+        <v>20241102</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2762,27 +2780,27 @@
         <v>3</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="6">
-        <v>20250607</v>
+        <v>20250210</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="6">
-        <v>20100609</v>
+        <v>20250607</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2790,13 +2808,13 @@
         <v>70</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C57" s="6">
-        <v>20121201</v>
+        <v>20100609</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2804,13 +2822,13 @@
         <v>70</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="6">
-        <v>20141105</v>
+        <v>20121201</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2818,13 +2836,13 @@
         <v>70</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="6">
-        <v>20150604</v>
+        <v>20141105</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2832,13 +2850,13 @@
         <v>70</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" s="6">
-        <v>20190801</v>
+        <v>20150604</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2846,13 +2864,13 @@
         <v>70</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C61" s="6">
-        <v>20220314</v>
+        <v>20190801</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2860,13 +2878,13 @@
         <v>70</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C62" s="6">
-        <v>20221011</v>
+        <v>20220314</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2874,13 +2892,13 @@
         <v>70</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C63" s="6">
-        <v>20230203</v>
+        <v>20221011</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2888,13 +2906,13 @@
         <v>70</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C64" s="6">
-        <v>20230205</v>
+        <v>20230203</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2902,13 +2920,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C65" s="6">
-        <v>20230407</v>
+        <v>20230205</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2916,13 +2934,13 @@
         <v>70</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C66" s="6">
-        <v>20231003</v>
+        <v>20230407</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2930,13 +2948,13 @@
         <v>70</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C67" s="6">
-        <v>20231005</v>
+        <v>20231003</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2944,13 +2962,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C68" s="6">
-        <v>20240106</v>
+        <v>20231005</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2958,13 +2976,13 @@
         <v>70</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C69" s="6">
-        <v>20240204</v>
+        <v>20240106</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2972,13 +2990,13 @@
         <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C70" s="6">
-        <v>20240205</v>
+        <v>20240204</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2986,13 +3004,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C71" s="6">
-        <v>20240905</v>
+        <v>20240205</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3000,13 +3018,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C72" s="6">
-        <v>20241001</v>
+        <v>20240905</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3014,13 +3032,13 @@
         <v>70</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C73" s="6">
-        <v>20250209</v>
+        <v>20241001</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3028,13 +3046,13 @@
         <v>70</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C74" s="6">
-        <v>20250302</v>
+        <v>20250209</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3042,13 +3060,13 @@
         <v>70</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75" s="6">
-        <v>20250303</v>
+        <v>20250302</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3056,13 +3074,13 @@
         <v>70</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C76" s="6">
-        <v>20250514</v>
+        <v>20250303</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3070,27 +3088,27 @@
         <v>70</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C77" s="6">
-        <v>20250602</v>
+        <v>20250514</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C78" s="6">
-        <v>20241004</v>
+        <v>20250602</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3098,19 +3116,48 @@
         <v>86</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="6">
+        <v>20241004</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="1">
+        <v>20220803</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C81" s="6">
         <v>20250701</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="82" spans="6:6">
+    <row r="82" spans="1:6">
       <c r="F82" s="9"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A83"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$81</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="166">
   <si>
     <t>부서</t>
   </si>
@@ -160,9 +160,6 @@
     <t>박소현</t>
   </si>
   <si>
-    <t>천성우</t>
-  </si>
-  <si>
     <t>박진하</t>
   </si>
   <si>
@@ -245,9 +242,6 @@
     <t>이수아</t>
   </si>
   <si>
-    <t>이태준</t>
-  </si>
-  <si>
     <t>권수철</t>
   </si>
   <si>
@@ -267,9 +261,6 @@
   </si>
   <si>
     <t>김혜지</t>
-  </si>
-  <si>
-    <t>김민수</t>
   </si>
   <si>
     <t>김병수</t>
@@ -413,9 +404,6 @@
     <t>010-4820-0387</t>
   </si>
   <si>
-    <t>010-2204-3198</t>
-  </si>
-  <si>
     <t>010-3902-8067</t>
   </si>
   <si>
@@ -492,10 +480,6 @@
   </si>
   <si>
     <t>010-6487-2507</t>
-  </si>
-  <si>
-    <t>010-7107-0660</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>010-8578-8917</t>
@@ -524,10 +508,6 @@
     <t>010-5673-5360</t>
   </si>
   <si>
-    <t>010-7601-4070</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>서동령</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -535,11 +515,20 @@
     <t>010-4056-4470</t>
   </si>
   <si>
-    <t>이승헌</t>
+    <t>박상중</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>010-5498-5718</t>
+    <t>정진엽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2683-8428</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-9898-7189</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2004,10 +1993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2030,161 +2019,161 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="6">
         <v>20070204</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="6">
         <v>20150608</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="6">
         <v>20151205</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="6">
-        <v>20250402</v>
+        <v>20021006</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="6">
-        <v>20021006</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>157</v>
+        <v>20151203</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="6">
-        <v>20151203</v>
+        <v>20241101</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="6">
-        <v>20241101</v>
+        <v>20151004</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="6">
-        <v>20151004</v>
+        <v>20100405</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="6">
-        <v>20100405</v>
+        <v>20220201</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="6">
-        <v>20220201</v>
+        <v>20230308</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6">
+        <v>20100709</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="6">
-        <v>20230308</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2192,13 +2181,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="6">
-        <v>20100709</v>
+        <v>20121208</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2206,13 +2195,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="6">
-        <v>20121208</v>
+        <v>20130102</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2220,13 +2209,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="6">
-        <v>20130102</v>
+        <v>20140104</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2234,13 +2223,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="6">
-        <v>20140104</v>
+        <v>20140316</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2248,13 +2237,13 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="6">
-        <v>20140316</v>
+        <v>20150109</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2262,13 +2251,13 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" s="6">
-        <v>20150109</v>
+        <v>20150603</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2276,13 +2265,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="6">
-        <v>20150603</v>
+        <v>20150616</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2290,13 +2279,13 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="6">
-        <v>20150616</v>
+        <v>20151109</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2304,13 +2293,13 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" s="6">
-        <v>20151109</v>
+        <v>20180703</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2318,13 +2307,13 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" s="6">
-        <v>20180703</v>
+        <v>20180710</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2332,13 +2321,13 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="6">
-        <v>20180710</v>
+        <v>20180908</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2346,13 +2335,13 @@
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C24" s="6">
-        <v>20180908</v>
+        <v>20191203</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2360,13 +2349,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" s="6">
-        <v>20191203</v>
+        <v>20201101</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2374,13 +2363,13 @@
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="6">
-        <v>20201101</v>
+        <v>20211205</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2388,13 +2377,13 @@
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="6">
-        <v>20211205</v>
+        <v>20220102</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2402,13 +2391,13 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28" s="6">
-        <v>20220102</v>
+        <v>20220603</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2416,13 +2405,13 @@
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" s="6">
-        <v>20220603</v>
+        <v>20221010</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2430,13 +2419,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="C30" s="6">
-        <v>20220706</v>
+        <v>20221012</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2444,13 +2433,13 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C31" s="6">
-        <v>20221010</v>
+        <v>20221203</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2458,13 +2447,13 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C32" s="6">
-        <v>20221012</v>
+        <v>20230204</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2472,10 +2461,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C33" s="6">
-        <v>20221203</v>
+        <v>20230208</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>104</v>
@@ -2486,13 +2475,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C34" s="6">
-        <v>20230204</v>
+        <v>20230406</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2500,13 +2489,13 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C35" s="6">
-        <v>20230208</v>
+        <v>20230404</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2514,13 +2503,13 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C36" s="6">
-        <v>20230406</v>
+        <v>20230409</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2528,69 +2517,69 @@
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C37" s="6">
-        <v>20230404</v>
+        <v>20230807</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C38" s="6">
-        <v>20230409</v>
+        <v>20231104</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="6">
-        <v>20230807</v>
+        <v>31</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="6">
+        <v>20231202</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="6">
-        <v>20231104</v>
-      </c>
-      <c r="D40" s="1" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="6">
+        <v>20240110</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="49.5">
-      <c r="A41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2598,13 +2587,13 @@
         <v>3</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C42" s="6">
-        <v>20231202</v>
+        <v>20240206</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2612,13 +2601,13 @@
         <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C43" s="6">
-        <v>20240110</v>
+        <v>20240305</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2626,13 +2615,13 @@
         <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C44" s="6">
-        <v>20240206</v>
+        <v>20240508</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2640,13 +2629,13 @@
         <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C45" s="6">
-        <v>20240305</v>
+        <v>20240511</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2654,13 +2643,13 @@
         <v>3</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C46" s="6">
-        <v>20240508</v>
+        <v>20240703</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2668,13 +2657,13 @@
         <v>3</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C47" s="6">
-        <v>20240511</v>
+        <v>20240904</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2682,13 +2671,13 @@
         <v>3</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C48" s="6">
-        <v>20240703</v>
+        <v>20240912</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2696,13 +2685,13 @@
         <v>3</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C49" s="6">
-        <v>20240904</v>
+        <v>20241002</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2710,13 +2699,13 @@
         <v>3</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C50" s="6">
-        <v>20240912</v>
+        <v>20241005</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2724,13 +2713,13 @@
         <v>3</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C51" s="6">
-        <v>20241002</v>
+        <v>20241007</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2738,13 +2727,13 @@
         <v>3</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C52" s="6">
-        <v>20241005</v>
+        <v>20241102</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2752,13 +2741,13 @@
         <v>3</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C53" s="6">
-        <v>20241007</v>
+        <v>20250607</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2766,13 +2755,13 @@
         <v>3</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="6">
-        <v>20241102</v>
+        <v>162</v>
+      </c>
+      <c r="C54" s="5">
+        <v>20250801</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2780,384 +2769,356 @@
         <v>3</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="C55" s="6">
-        <v>20250210</v>
+        <v>20250804</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="6">
-        <v>20250607</v>
+        <v>20100609</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C57" s="6">
-        <v>20100609</v>
+        <v>20121201</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C58" s="6">
-        <v>20121201</v>
+        <v>20141105</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C59" s="6">
-        <v>20141105</v>
+        <v>20150604</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C60" s="6">
-        <v>20150604</v>
+        <v>20190801</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C61" s="6">
-        <v>20190801</v>
+        <v>20220314</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C62" s="6">
-        <v>20220314</v>
+        <v>20221011</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C63" s="6">
-        <v>20221011</v>
+        <v>20230203</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C64" s="6">
-        <v>20230203</v>
+        <v>20230205</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C65" s="6">
-        <v>20230205</v>
+        <v>20230407</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C66" s="6">
-        <v>20230407</v>
+        <v>20231003</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C67" s="6">
-        <v>20231003</v>
+        <v>20231005</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C68" s="6">
-        <v>20231005</v>
+        <v>20240106</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C69" s="6">
-        <v>20240106</v>
+        <v>20240204</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C70" s="6">
-        <v>20240204</v>
+        <v>20240205</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C71" s="6">
-        <v>20240205</v>
+        <v>20240905</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C72" s="6">
-        <v>20240905</v>
+        <v>20241001</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C73" s="6">
-        <v>20241001</v>
+        <v>20250209</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C74" s="6">
-        <v>20250209</v>
+        <v>20250302</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C75" s="6">
-        <v>20250302</v>
+        <v>20250303</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C76" s="6">
-        <v>20250303</v>
+        <v>20250514</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C77" s="6">
-        <v>20250514</v>
+        <v>20250602</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C78" s="6">
-        <v>20250602</v>
+        <v>160</v>
+      </c>
+      <c r="C78" s="1">
+        <v>20220803</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C79" s="6">
-        <v>20241004</v>
+        <v>20250701</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C80" s="1">
-        <v>20220803</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C81" s="6">
-        <v>20250701</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="F82" s="9"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="F80" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A83"/>
+  <autoFilter ref="A1:A81"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
